--- a/config_Release/buyu_rank_activity_server.xlsx
+++ b/config_Release/buyu_rank_activity_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -503,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1">
-        <v>50000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>30000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -722,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -791,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="1">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="1">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -860,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -955,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
